--- a/black_list.xlsx
+++ b/black_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,48 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>203.107.1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>203.107.1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>203.107.1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>203.107.1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>203.107.1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>203.107.1.34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/black_list.xlsx
+++ b/black_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,49 +443,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>112.126.94.107</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>123.56.228.49</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>139.99.236.139</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>158.51.124.38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>158.51.124.56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>158.51.126.135</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>185.215.113.66</t>
         </is>
       </c>
     </row>
@@ -499,98 +499,56 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>217.8.117.10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>5.188.226.52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>66.187.4.127</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>v20.events.data.microsoft.com</t>
+          <t>66.187.4.169</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>66.187.4.92</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>66.187.6.203</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>92.63.197.112</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>203.107.1.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>203.107.1.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>203.107.1.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>203.107.1.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>203.107.1.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>203.107.1.34</t>
+          <t>92.63.197.60</t>
         </is>
       </c>
     </row>

--- a/black_list.xlsx
+++ b/black_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/black_list.xlsx
+++ b/black_list.xlsx
@@ -1,37 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>112.126.94.107</t>
+  </si>
+  <si>
+    <t>123.56.228.49</t>
+  </si>
+  <si>
+    <t>139.99.236.139</t>
+  </si>
+  <si>
+    <t>158.51.124.38</t>
+  </si>
+  <si>
+    <t>158.51.124.56</t>
+  </si>
+  <si>
+    <t>158.51.126.135</t>
+  </si>
+  <si>
+    <t>185.215.113.66</t>
+  </si>
+  <si>
+    <t>203.107.1.34</t>
+  </si>
+  <si>
+    <t>217.8.117.10</t>
+  </si>
+  <si>
+    <t>5.188.226.52</t>
+  </si>
+  <si>
+    <t>66.187.4.127</t>
+  </si>
+  <si>
+    <t>66.187.4.169</t>
+  </si>
+  <si>
+    <t>66.187.4.92</t>
+  </si>
+  <si>
+    <t>66.187.6.203</t>
+  </si>
+  <si>
+    <t>92.63.197.112</t>
+  </si>
+  <si>
+    <t>92.63.197.60</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +108,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,139 +424,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>112.126.94.107</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>123.56.228.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>139.99.236.139</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>158.51.124.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>158.51.124.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>158.51.126.135</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>185.215.113.66</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>203.107.1.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>217.8.117.10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5.188.226.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>66.187.4.127</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>66.187.4.169</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>66.187.4.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>66.187.6.203</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>92.63.197.112</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>92.63.197.60</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/black_list.xlsx
+++ b/black_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\FMS_monitor_virus_autocheck\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205FC8A4-DE62-49F3-BBB1-8DA799181470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ip</t>
   </si>
@@ -68,13 +74,16 @@
   </si>
   <si>
     <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>jjrvaka.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,101 +443,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
